--- a/src/assets/projects/ai/micronutri/datasets/training_data_microbiome_diet.xlsx
+++ b/src/assets/projects/ai/micronutri/datasets/training_data_microbiome_diet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saada\Documents\IDE\ReactProjects\ih-web-react-website\src\assets\projects\ai\micronutri\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89749DE1-84D6-485F-ADD1-CF38FB8121ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +198,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -674,11 +680,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -730,14 +735,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +783,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -847,7 +855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1020,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1119,7 +1127,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -1145,7 +1153,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -1171,7 +1179,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -1197,7 +1205,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -1223,7 +1231,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -1249,7 +1257,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -1275,7 +1283,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
@@ -1301,7 +1309,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -1333,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1345,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
